--- a/brasil/spark/spark_1.xlsx
+++ b/brasil/spark/spark_1.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="spark_1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="spark_2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="spark_3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="36">
   <si>
     <t>herbicide</t>
   </si>
@@ -112,6 +113,15 @@
   <si>
     <t>Divisao celular</t>
   </si>
+  <si>
+    <t>pat</t>
+  </si>
+  <si>
+    <t>pasture</t>
+  </si>
+  <si>
+    <t>Other crops</t>
+  </si>
 </sst>
 </file>
 
@@ -143,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -154,6 +164,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -167,6 +178,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -4341,4 +4356,360 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4">
+        <f t="shared" ref="C2:C19" si="1">E2*D2</f>
+        <v>154824.88</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.56</v>
+      </c>
+      <c r="E2" s="1">
+        <v>276473.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" si="1"/>
+        <v>157271.95</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.55</v>
+      </c>
+      <c r="E3" s="1">
+        <v>285949.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="1"/>
+        <v>172300.8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.56</v>
+      </c>
+      <c r="E4" s="1">
+        <v>307680.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="1"/>
+        <v>35941.49</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="E5" s="1">
+        <v>276473.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="1"/>
+        <v>40032.86</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.14</v>
+      </c>
+      <c r="E6" s="1">
+        <v>285949.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="1"/>
+        <v>39998.4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="E7" s="1">
+        <v>307680.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="1"/>
+        <v>27647.3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>276473.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="1"/>
+        <v>25735.41</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E9" s="1">
+        <v>285949.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="1"/>
+        <v>27691.2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E10" s="1">
+        <v>307680.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="1"/>
+        <v>16588.38</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E11" s="1">
+        <v>276473.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="1"/>
+        <v>20016.43</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.07</v>
+      </c>
+      <c r="E12" s="1">
+        <v>285949.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="1"/>
+        <v>24614.4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E13" s="1">
+        <v>307680.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="1"/>
+        <v>11058.92</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="E14" s="1">
+        <v>276473.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="1"/>
+        <v>14297.45</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E15" s="1">
+        <v>285949.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="1"/>
+        <v>15384</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E16" s="1">
+        <v>307680.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="1"/>
+        <v>27647.3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>276473.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="1"/>
+        <v>28594.9</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>285949.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="1"/>
+        <v>30768</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>307680.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>